--- a/9_Contactenos/Equipo_Ventas_Informacion.xlsx
+++ b/9_Contactenos/Equipo_Ventas_Informacion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://salesbridge-my.sharepoint.com/personal/quesadawillie_la-bridgestone_com/Documents/Desktop/Proyecto/Equipo_Ventas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://salesbridge-my.sharepoint.com/personal/quesadawillie_la-bridgestone_com/Documents/Desktop/Proyecto/9_Contactenos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_F25DC773A252ABDACC1048EC39585BBC5BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{542232EA-BDAC-44A6-B7A4-820F2A82D2EB}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC1048EC39585BBC5BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CFF9FCB-EC86-42C2-AF13-F7C749FFDB57}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Apellidos</t>
   </si>
@@ -39,40 +39,28 @@
     <t>Celular</t>
   </si>
   <si>
-    <t>Willie Alexis</t>
-  </si>
-  <si>
     <t>Marimar</t>
   </si>
   <si>
     <t>Zuñiga</t>
   </si>
   <si>
-    <t>Quesada</t>
-  </si>
-  <si>
-    <t>willie.aqs@gmail.com</t>
-  </si>
-  <si>
     <t>Imagen</t>
   </si>
   <si>
-    <t>WillieQ</t>
-  </si>
-  <si>
-    <t>MarimarZ</t>
-  </si>
-  <si>
     <t>Marco Vinicio</t>
   </si>
   <si>
     <t>realestatemarcovinicio@gmail.com</t>
   </si>
   <si>
-    <t>VinicioZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">marizuro12@gmail.com </t>
+  </si>
+  <si>
+    <t>VinicioZ.jpeg</t>
+  </si>
+  <si>
+    <t>MarimarZ.png</t>
   </si>
 </sst>
 </file>
@@ -136,6 +124,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA7CB9E0-6BB1-4532-A607-C9FA6A7E53AF}" name="Table1" displayName="Table1" ref="A1:E3" totalsRowShown="0">
+  <autoFilter ref="A1:E3" xr:uid="{CA7CB9E0-6BB1-4532-A607-C9FA6A7E53AF}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CB44442A-1B15-42FA-A724-B967EBD8BE0D}" name="Nombres"/>
+    <tableColumn id="2" xr3:uid="{2DF92838-AE8A-426E-BDF3-0565D4F6396C}" name="Apellidos"/>
+    <tableColumn id="3" xr3:uid="{B3C81C84-9635-4411-8AB2-2C8C0040A856}" name="Celular"/>
+    <tableColumn id="4" xr3:uid="{20340768-3EED-4106-8C25-C10FA7E0329E}" name="Correo"/>
+    <tableColumn id="5" xr3:uid="{4A9B54FE-E056-4C56-8C2A-4BB3189980C3}" name="Imagen"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,7 +414,8 @@
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="33.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -429,7 +432,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -437,56 +440,40 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>86070156</v>
+        <v>61833197</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3">
-        <v>61833197</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>87038811</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>72571715</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{38CCBC4A-105C-4C1C-9E85-FE9A35BE35F8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>